--- a/Project1Rubric_Davalos.xlsx
+++ b/Project1Rubric_Davalos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tevis\Documents\WestMEC\START\Projects\Project1WebEssay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tevis\Documents\WestMEC\START\Projects\Project1WebEssay\Session2Graded\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rough Draft (30 pts)" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -184,6 +184,15 @@
   <si>
     <t>Student utilized little HTML5.</t>
   </si>
+  <si>
+    <t>Your images are all hyperlinks to external pages, rather than files local to your page.  I've mentioned a few times in class that this is not a good idea.</t>
+  </si>
+  <si>
+    <t>You have inline styles throughout your page, such as line 42: &lt;h3 style="background: #fcff00"&gt;&amp;nbsp;The Z3 Computer 💻&lt;/h3&gt;.  Instead, all styles should be applied with an internal style sheet at the top of your document.</t>
+  </si>
+  <si>
+    <t>37/40</t>
+  </si>
 </sst>
 </file>
 
@@ -235,7 +244,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -267,11 +276,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -295,14 +315,17 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,13 +669,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -735,7 +758,7 @@
       <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -752,7 +775,7 @@
       <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -769,7 +792,7 @@
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -7656,7 +7679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E995"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7666,7 +7689,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="2"/>
@@ -7682,13 +7705,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -7771,7 +7794,7 @@
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -7788,7 +7811,7 @@
       <c r="A14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -7805,7 +7828,7 @@
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -14690,66 +14713,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E997"/>
+  <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="26" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="51.875" customWidth="1"/>
+    <col min="7" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
-        <f>CHAR(32)</f>
-        <v xml:space="preserve"> </v>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
@@ -14758,21 +14781,21 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>48</v>
       </c>
@@ -14781,14 +14804,14 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -14805,11 +14828,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -14822,11 +14845,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -14839,11 +14862,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -14856,7 +14879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
@@ -14866,21 +14889,24 @@
       <c r="C16" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -14889,15 +14915,18 @@
       <c r="E17" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -14906,91 +14935,91 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
